--- a/CPBL Analysis/temp2.xlsx
+++ b/CPBL Analysis/temp2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\莊明儒\Desktop\中職票房研究\DataProcess\CPBL Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC188A38-04A1-49CA-96ED-F045D8587E69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC620D5-6EDB-4F25-B6BD-42B0C6E1C191}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6804" yWindow="1440" windowWidth="11460" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6456" yWindow="1092" windowWidth="11460" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,15 +539,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
